--- a/PROPUESTA1.xlsx
+++ b/PROPUESTA1.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:H501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H2" sqref="H2:H501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,6 +906,7 @@
         <v>21.7</v>
       </c>
       <c r="H2">
+        <f>IF(AND((G2&lt;25.9),(A2&lt;20),(B2&lt;70)),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -932,6 +933,7 @@
         <v>12.299999999999999</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">IF(AND((G3&lt;25.9),(A3&lt;20),(B3&lt;70)),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -958,7 +960,8 @@
         <v>10.999999999999998</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -984,7 +987,8 @@
         <v>10.4</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1010,6 +1014,7 @@
         <v>10.9</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1036,7 +1041,8 @@
         <v>16.900000000000002</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1062,6 +1068,7 @@
         <v>11.8</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1088,6 +1095,7 @@
         <v>11.400000000000002</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1122,8 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1140,7 +1149,8 @@
         <v>11.3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1166,7 +1176,8 @@
         <v>9.6000000000000014</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1192,7 +1203,8 @@
         <v>11.3</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1218,7 +1230,8 @@
         <v>11.5</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1244,6 +1257,7 @@
         <v>11.1</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1270,6 +1284,7 @@
         <v>10.399999999999999</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1296,6 +1311,7 @@
         <v>21.9</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1322,7 +1338,8 @@
         <v>13.3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1348,7 +1365,8 @@
         <v>7.2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1374,6 +1392,7 @@
         <v>14.600000000000001</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1400,7 +1419,8 @@
         <v>10.600000000000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1426,7 +1446,8 @@
         <v>9.6</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1452,7 +1473,8 @@
         <v>12</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1478,6 +1500,7 @@
         <v>15.1</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1504,7 +1527,8 @@
         <v>13.100000000000001</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1530,7 +1554,8 @@
         <v>10.100000000000001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1556,6 +1581,7 @@
         <v>9.2999999999999989</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1582,6 +1608,7 @@
         <v>16.3</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1608,7 +1635,8 @@
         <v>7.2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1634,7 +1662,8 @@
         <v>11.9</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1660,7 +1689,8 @@
         <v>18.2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1686,7 +1716,8 @@
         <v>11.9</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1712,7 +1743,8 @@
         <v>15.400000000000002</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1738,7 +1770,8 @@
         <v>9.6000000000000014</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1764,6 +1797,7 @@
         <v>19.2</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1790,7 +1824,8 @@
         <v>23</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1816,6 +1851,7 @@
         <v>21.700000000000006</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1842,7 +1878,8 @@
         <v>17.099999999999998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1868,7 +1905,8 @@
         <v>13.6</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1894,6 +1932,7 @@
         <v>24.1</v>
       </c>
       <c r="H40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1920,7 +1959,8 @@
         <v>22.7</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1946,7 +1986,8 @@
         <v>14.500000000000002</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1972,6 +2013,7 @@
         <v>14.700000000000001</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1998,7 +2040,8 @@
         <v>19.100000000000001</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2024,6 +2067,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2050,7 +2094,8 @@
         <v>14.900000000000002</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2076,7 +2121,8 @@
         <v>21.200000000000003</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2102,7 +2148,8 @@
         <v>5.8</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2128,6 +2175,7 @@
         <v>6.1</v>
       </c>
       <c r="H49">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2154,7 +2202,8 @@
         <v>16.200000000000003</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2180,6 +2229,7 @@
         <v>11.100000000000001</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2206,6 +2256,7 @@
         <v>6.4</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2232,7 +2283,8 @@
         <v>15.200000000000001</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2258,7 +2310,8 @@
         <v>13.600000000000001</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2284,6 +2337,7 @@
         <v>8.7999999999999989</v>
       </c>
       <c r="H55">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2310,7 +2364,8 @@
         <v>14.9</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2336,7 +2391,8 @@
         <v>17.100000000000001</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2362,7 +2418,8 @@
         <v>11.6</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2388,7 +2445,8 @@
         <v>7.9000000000000012</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2414,6 +2472,7 @@
         <v>11.2</v>
       </c>
       <c r="H60">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2440,6 +2499,7 @@
         <v>17.3</v>
       </c>
       <c r="H61">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2466,7 +2526,8 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2492,6 +2553,7 @@
         <v>11.8</v>
       </c>
       <c r="H63">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2518,7 +2580,8 @@
         <v>16.600000000000001</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2544,7 +2607,8 @@
         <v>17.500000000000004</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2570,7 +2634,8 @@
         <v>15.700000000000001</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2596,7 +2661,8 @@
         <v>12.5</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <f t="shared" ref="H67:H130" si="1">IF(AND((G67&lt;25.9),(A67&lt;20),(B67&lt;70)),1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2622,6 +2688,7 @@
         <v>8.2000000000000011</v>
       </c>
       <c r="H68">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2648,7 +2715,8 @@
         <v>5.6999999999999993</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2674,7 +2742,8 @@
         <v>20.099999999999998</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2700,6 +2769,7 @@
         <v>7.1</v>
       </c>
       <c r="H71">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2726,6 +2796,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H72">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2752,7 +2823,8 @@
         <v>14.600000000000001</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2778,6 +2850,7 @@
         <v>12.7</v>
       </c>
       <c r="H74">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2804,7 +2877,8 @@
         <v>17.5</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2830,6 +2904,7 @@
         <v>11.999999999999998</v>
       </c>
       <c r="H76">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2856,6 +2931,7 @@
         <v>13.799999999999999</v>
       </c>
       <c r="H77">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2882,7 +2958,8 @@
         <v>16.800000000000004</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2908,7 +2985,8 @@
         <v>15.8</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2934,7 +3012,8 @@
         <v>10.400000000000002</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2960,7 +3039,8 @@
         <v>13.6</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2986,7 +3066,8 @@
         <v>13.3</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -3012,7 +3093,8 @@
         <v>17.2</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3038,6 +3120,7 @@
         <v>21.299999999999997</v>
       </c>
       <c r="H84">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3064,6 +3147,7 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="H85">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3090,7 +3174,8 @@
         <v>12.100000000000001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3116,7 +3201,8 @@
         <v>10.6</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3142,7 +3228,8 @@
         <v>12.2</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -3168,6 +3255,7 @@
         <v>8.4</v>
       </c>
       <c r="H89">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3194,7 +3282,8 @@
         <v>18.900000000000006</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -3220,6 +3309,7 @@
         <v>12.7</v>
       </c>
       <c r="H91">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3246,6 +3336,7 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="H92">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3272,6 +3363,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H93">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3298,7 +3390,8 @@
         <v>8.1</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3324,7 +3417,8 @@
         <v>17.099999999999998</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3350,6 +3444,7 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="H96">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3376,6 +3471,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H97">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3402,7 +3498,8 @@
         <v>11.400000000000002</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3428,7 +3525,8 @@
         <v>11.3</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3454,7 +3552,8 @@
         <v>20.399999999999999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3480,7 +3579,8 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -3506,6 +3606,7 @@
         <v>11.8</v>
       </c>
       <c r="H102">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3532,6 +3633,7 @@
         <v>14.100000000000001</v>
       </c>
       <c r="H103">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3558,7 +3660,8 @@
         <v>11.9</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3584,6 +3687,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="H105">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3610,7 +3714,8 @@
         <v>14.700000000000003</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3636,7 +3741,8 @@
         <v>5.6000000000000005</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3662,7 +3768,8 @@
         <v>15.400000000000002</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3688,6 +3795,7 @@
         <v>15.600000000000001</v>
       </c>
       <c r="H109">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3714,6 +3822,7 @@
         <v>15.400000000000002</v>
       </c>
       <c r="H110">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3740,6 +3849,7 @@
         <v>9</v>
       </c>
       <c r="H111">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3766,7 +3876,8 @@
         <v>14.600000000000001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3792,7 +3903,8 @@
         <v>15.799999999999999</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3818,6 +3930,7 @@
         <v>9.0000000000000018</v>
       </c>
       <c r="H114">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3844,7 +3957,8 @@
         <v>16.900000000000002</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -3870,7 +3984,8 @@
         <v>12.000000000000002</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3896,7 +4011,8 @@
         <v>18.2</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -3922,7 +4038,8 @@
         <v>13.9</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3948,6 +4065,7 @@
         <v>15.299999999999999</v>
       </c>
       <c r="H119">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3974,7 +4092,8 @@
         <v>12.700000000000003</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -4000,6 +4119,7 @@
         <v>13.4</v>
       </c>
       <c r="H121">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4026,6 +4146,7 @@
         <v>16.8</v>
       </c>
       <c r="H122">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4052,7 +4173,8 @@
         <v>21.499999999999996</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -4078,7 +4200,8 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4104,7 +4227,8 @@
         <v>18.100000000000001</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -4130,6 +4254,7 @@
         <v>8.4</v>
       </c>
       <c r="H126">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4156,7 +4281,8 @@
         <v>20.800000000000004</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -4182,6 +4308,7 @@
         <v>14.700000000000003</v>
       </c>
       <c r="H128">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4208,6 +4335,7 @@
         <v>6.0000000000000009</v>
       </c>
       <c r="H129">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4234,6 +4362,7 @@
         <v>17.200000000000003</v>
       </c>
       <c r="H130">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4260,7 +4389,8 @@
         <v>13.000000000000002</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <f t="shared" ref="H131:H194" si="2">IF(AND((G131&lt;25.9),(A131&lt;20),(B131&lt;70)),1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -4286,7 +4416,8 @@
         <v>15.8</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4312,7 +4443,8 @@
         <v>16</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4338,6 +4470,7 @@
         <v>9</v>
       </c>
       <c r="H134">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4364,7 +4497,8 @@
         <v>17.399999999999999</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -4390,7 +4524,8 @@
         <v>20.3</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4416,6 +4551,7 @@
         <v>18</v>
       </c>
       <c r="H137">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4442,6 +4578,7 @@
         <v>15.799999999999999</v>
       </c>
       <c r="H138">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4468,7 +4605,8 @@
         <v>19.900000000000002</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -4494,6 +4632,7 @@
         <v>15.1</v>
       </c>
       <c r="H140">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4520,7 +4659,8 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4546,7 +4686,8 @@
         <v>14.900000000000002</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4572,6 +4713,7 @@
         <v>13.900000000000002</v>
       </c>
       <c r="H143">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4598,7 +4740,8 @@
         <v>11.299999999999999</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4624,7 +4767,8 @@
         <v>10.1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4650,7 +4794,8 @@
         <v>10.8</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4676,6 +4821,7 @@
         <v>21.700000000000003</v>
       </c>
       <c r="H147">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4702,7 +4848,8 @@
         <v>7.2</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4728,6 +4875,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H149">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4754,7 +4902,8 @@
         <v>20.900000000000002</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4780,7 +4929,8 @@
         <v>19.599999999999998</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -4806,6 +4956,7 @@
         <v>13.200000000000003</v>
       </c>
       <c r="H152">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4832,6 +4983,7 @@
         <v>10.200000000000001</v>
       </c>
       <c r="H153">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4858,6 +5010,7 @@
         <v>16.400000000000002</v>
       </c>
       <c r="H154">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4884,7 +5037,8 @@
         <v>14</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4910,7 +5064,8 @@
         <v>14.299999999999999</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4936,7 +5091,8 @@
         <v>20.700000000000003</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4962,7 +5118,8 @@
         <v>14.200000000000001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4988,7 +5145,8 @@
         <v>19.100000000000001</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5014,6 +5172,7 @@
         <v>10.4</v>
       </c>
       <c r="H160">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5040,7 +5199,8 @@
         <v>21.6</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -5066,7 +5226,8 @@
         <v>11.100000000000001</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -5092,7 +5253,8 @@
         <v>15.1</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -5118,7 +5280,8 @@
         <v>14.200000000000003</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -5144,6 +5307,7 @@
         <v>12.5</v>
       </c>
       <c r="H165">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5170,7 +5334,8 @@
         <v>10.4</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -5196,7 +5361,8 @@
         <v>17.100000000000001</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -5222,7 +5388,8 @@
         <v>18.7</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -5248,6 +5415,7 @@
         <v>6.9</v>
       </c>
       <c r="H169">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5274,6 +5442,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H170">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5300,6 +5469,7 @@
         <v>20.8</v>
       </c>
       <c r="H171">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5326,7 +5496,8 @@
         <v>17</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -5352,7 +5523,8 @@
         <v>17.200000000000003</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -5378,7 +5550,8 @@
         <v>17.3</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -5404,7 +5577,8 @@
         <v>14.499999999999998</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5430,7 +5604,8 @@
         <v>16.5</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5456,6 +5631,7 @@
         <v>12.500000000000002</v>
       </c>
       <c r="H177">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5482,7 +5658,8 @@
         <v>12.600000000000001</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -5508,7 +5685,8 @@
         <v>10.8</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5534,7 +5712,8 @@
         <v>13.200000000000001</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5560,6 +5739,7 @@
         <v>23.1</v>
       </c>
       <c r="H181">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5586,6 +5766,7 @@
         <v>15.5</v>
       </c>
       <c r="H182">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5612,6 +5793,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="H183">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5638,7 +5820,8 @@
         <v>7.6</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5664,6 +5847,7 @@
         <v>12.3</v>
       </c>
       <c r="H185">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5690,7 +5874,8 @@
         <v>9.9000000000000021</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -5716,7 +5901,8 @@
         <v>24.4</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -5742,7 +5928,8 @@
         <v>15.700000000000001</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -5768,6 +5955,7 @@
         <v>11.299999999999999</v>
       </c>
       <c r="H189">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5794,7 +5982,8 @@
         <v>19.400000000000002</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -5820,7 +6009,8 @@
         <v>12.5</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5846,7 +6036,8 @@
         <v>10.7</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -5872,7 +6063,8 @@
         <v>10.5</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -5898,7 +6090,8 @@
         <v>13.700000000000001</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -5924,6 +6117,7 @@
         <v>5.1000000000000005</v>
       </c>
       <c r="H195">
+        <f t="shared" ref="H195:H258" si="3">IF(AND((G195&lt;25.9),(A195&lt;20),(B195&lt;70)),1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5950,7 +6144,8 @@
         <v>12.3</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -5976,6 +6171,7 @@
         <v>14.000000000000002</v>
       </c>
       <c r="H197">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6002,7 +6198,8 @@
         <v>13.7</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6028,7 +6225,8 @@
         <v>17.900000000000002</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -6054,7 +6252,8 @@
         <v>11.700000000000001</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -6080,6 +6279,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="H201">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6106,7 +6306,8 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
@@ -6132,7 +6333,8 @@
         <v>14.3</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
@@ -6158,7 +6360,8 @@
         <v>16.400000000000002</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -6184,7 +6387,8 @@
         <v>9.4</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -6210,7 +6414,8 @@
         <v>12.900000000000002</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
@@ -6236,7 +6441,8 @@
         <v>14.3</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -6262,7 +6468,8 @@
         <v>18.899999999999999</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6288,7 +6495,8 @@
         <v>7.9000000000000012</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -6314,7 +6522,8 @@
         <v>14</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -6340,6 +6549,7 @@
         <v>20.299999999999997</v>
       </c>
       <c r="H211">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6366,7 +6576,8 @@
         <v>16.100000000000001</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -6392,6 +6603,7 @@
         <v>17.3</v>
       </c>
       <c r="H213">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6418,7 +6630,8 @@
         <v>11.600000000000001</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -6444,7 +6657,8 @@
         <v>12.100000000000001</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6470,6 +6684,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="H216">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6496,7 +6711,8 @@
         <v>6.5</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6522,7 +6738,8 @@
         <v>11.9</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -6548,6 +6765,7 @@
         <v>15.299999999999999</v>
       </c>
       <c r="H219">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6574,6 +6792,7 @@
         <v>18.5</v>
       </c>
       <c r="H220">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6600,6 +6819,7 @@
         <v>15.5</v>
       </c>
       <c r="H221">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6626,7 +6846,8 @@
         <v>18.099999999999998</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -6652,7 +6873,8 @@
         <v>13.5</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -6678,7 +6900,8 @@
         <v>14.1</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -6704,7 +6927,8 @@
         <v>11.499999999999998</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -6730,7 +6954,8 @@
         <v>20</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6756,6 +6981,7 @@
         <v>6.9</v>
       </c>
       <c r="H227">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6782,7 +7008,8 @@
         <v>12.7</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -6808,6 +7035,7 @@
         <v>17.200000000000003</v>
       </c>
       <c r="H229">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6834,7 +7062,8 @@
         <v>14</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -6860,6 +7089,7 @@
         <v>20</v>
       </c>
       <c r="H231">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6886,6 +7116,7 @@
         <v>12.8</v>
       </c>
       <c r="H232">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6912,7 +7143,8 @@
         <v>15.000000000000004</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -6938,7 +7170,8 @@
         <v>12.8</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -6964,7 +7197,8 @@
         <v>19.2</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -6990,7 +7224,8 @@
         <v>10</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -7016,7 +7251,8 @@
         <v>11.299999999999999</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7042,7 +7278,8 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -7068,7 +7305,8 @@
         <v>14.8</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -7094,7 +7332,8 @@
         <v>19.5</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7120,7 +7359,8 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7146,7 +7386,8 @@
         <v>18.000000000000004</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7172,6 +7413,7 @@
         <v>7.1000000000000005</v>
       </c>
       <c r="H243">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7198,7 +7440,8 @@
         <v>11.400000000000002</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -7224,7 +7467,8 @@
         <v>22.1</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -7250,7 +7494,8 @@
         <v>15.299999999999999</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -7276,7 +7521,8 @@
         <v>12.400000000000002</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7302,7 +7548,8 @@
         <v>20.600000000000005</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -7328,6 +7575,7 @@
         <v>12.3</v>
       </c>
       <c r="H249">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7354,6 +7602,7 @@
         <v>16.7</v>
       </c>
       <c r="H250">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7380,6 +7629,7 @@
         <v>14.9</v>
       </c>
       <c r="H251">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7406,7 +7656,8 @@
         <v>12.400000000000002</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -7432,7 +7683,8 @@
         <v>18.700000000000006</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -7458,7 +7710,8 @@
         <v>14.000000000000002</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7484,7 +7737,8 @@
         <v>8.0000000000000018</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7510,7 +7764,8 @@
         <v>14.000000000000002</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -7536,7 +7791,8 @@
         <v>16</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -7562,7 +7818,8 @@
         <v>14.9</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -7588,7 +7845,8 @@
         <v>12.1</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <f t="shared" ref="H259:H322" si="4">IF(AND((G259&lt;25.9),(A259&lt;20),(B259&lt;70)),1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -7614,7 +7872,8 @@
         <v>18.700000000000003</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -7640,6 +7899,7 @@
         <v>20.400000000000002</v>
       </c>
       <c r="H261">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7666,6 +7926,7 @@
         <v>12</v>
       </c>
       <c r="H262">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7692,7 +7953,8 @@
         <v>16.5</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -7718,7 +7980,8 @@
         <v>12.400000000000002</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -7744,7 +8007,8 @@
         <v>21.1</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -7770,6 +8034,7 @@
         <v>15.6</v>
       </c>
       <c r="H266">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7796,7 +8061,8 @@
         <v>14.799999999999999</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7822,6 +8088,7 @@
         <v>10.999999999999998</v>
       </c>
       <c r="H268">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7848,6 +8115,7 @@
         <v>15.499999999999998</v>
       </c>
       <c r="H269">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7874,7 +8142,8 @@
         <v>12.500000000000002</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7900,7 +8169,8 @@
         <v>18.200000000000003</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -7926,6 +8196,7 @@
         <v>6.2</v>
       </c>
       <c r="H272">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7952,7 +8223,8 @@
         <v>17</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
@@ -7978,7 +8250,8 @@
         <v>12.4</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
@@ -8004,7 +8277,8 @@
         <v>15.4</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
@@ -8030,7 +8304,8 @@
         <v>10.900000000000002</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -8056,7 +8331,8 @@
         <v>11.600000000000001</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -8082,7 +8358,8 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -8108,6 +8385,7 @@
         <v>6.5</v>
       </c>
       <c r="H279">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8134,6 +8412,7 @@
         <v>13.100000000000001</v>
       </c>
       <c r="H280">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8160,7 +8439,8 @@
         <v>15.3</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -8186,6 +8466,7 @@
         <v>8.1000000000000014</v>
       </c>
       <c r="H282">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8212,7 +8493,8 @@
         <v>12.3</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -8238,6 +8520,7 @@
         <v>9</v>
       </c>
       <c r="H284">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8264,6 +8547,7 @@
         <v>10.3</v>
       </c>
       <c r="H285">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8290,7 +8574,8 @@
         <v>14.200000000000001</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -8316,7 +8601,8 @@
         <v>14.6</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -8342,7 +8628,8 @@
         <v>17.8</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8368,7 +8655,8 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -8394,6 +8682,7 @@
         <v>14.9</v>
       </c>
       <c r="H290">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8420,6 +8709,7 @@
         <v>9</v>
       </c>
       <c r="H291">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -8446,6 +8736,7 @@
         <v>14.799999999999999</v>
       </c>
       <c r="H292">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8472,6 +8763,7 @@
         <v>12.8</v>
       </c>
       <c r="H293">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8498,7 +8790,8 @@
         <v>10.200000000000003</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -8524,7 +8817,8 @@
         <v>17.300000000000004</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -8550,7 +8844,8 @@
         <v>13.299999999999999</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -8576,7 +8871,8 @@
         <v>17.599999999999998</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8602,7 +8898,8 @@
         <v>7.6999999999999993</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -8628,7 +8925,8 @@
         <v>11.200000000000001</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -8654,7 +8952,8 @@
         <v>18.600000000000005</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -8680,6 +8979,7 @@
         <v>13.3</v>
       </c>
       <c r="H301">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8706,6 +9006,7 @@
         <v>18.500000000000004</v>
       </c>
       <c r="H302">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8732,6 +9033,7 @@
         <v>15.100000000000001</v>
       </c>
       <c r="H303">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8758,7 +9060,8 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8784,7 +9087,8 @@
         <v>12.4</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -8810,6 +9114,7 @@
         <v>15.200000000000003</v>
       </c>
       <c r="H306">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8836,6 +9141,7 @@
         <v>18.900000000000002</v>
       </c>
       <c r="H307">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8862,6 +9168,7 @@
         <v>14.799999999999999</v>
       </c>
       <c r="H308">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -8888,7 +9195,8 @@
         <v>17.7</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8914,7 +9222,8 @@
         <v>16.400000000000002</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8940,7 +9249,8 @@
         <v>13.200000000000001</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8966,7 +9276,8 @@
         <v>14.600000000000001</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8992,7 +9303,8 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -9018,7 +9330,8 @@
         <v>6.2</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -9044,7 +9357,8 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -9070,6 +9384,7 @@
         <v>16.200000000000003</v>
       </c>
       <c r="H316">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9096,7 +9411,8 @@
         <v>14.200000000000001</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -9122,6 +9438,7 @@
         <v>10.1</v>
       </c>
       <c r="H318">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9148,7 +9465,8 @@
         <v>15.800000000000002</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -9174,6 +9492,7 @@
         <v>5.3</v>
       </c>
       <c r="H320">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9200,7 +9519,8 @@
         <v>14.200000000000001</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -9226,7 +9546,8 @@
         <v>22.5</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -9252,6 +9573,7 @@
         <v>21.599999999999998</v>
       </c>
       <c r="H323">
+        <f t="shared" ref="H323:H386" si="5">IF(AND((G323&lt;25.9),(A323&lt;20),(B323&lt;70)),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9278,6 +9600,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H324">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9304,6 +9627,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H325">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9330,7 +9654,8 @@
         <v>12.6</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -9356,6 +9681,7 @@
         <v>7.9000000000000012</v>
       </c>
       <c r="H327">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9382,7 +9708,8 @@
         <v>16.3</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -9408,7 +9735,8 @@
         <v>14.4</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -9434,7 +9762,8 @@
         <v>15.3</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -9460,7 +9789,8 @@
         <v>15.900000000000002</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -9486,7 +9816,8 @@
         <v>12.700000000000003</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -9512,7 +9843,8 @@
         <v>12.700000000000003</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -9538,7 +9870,8 @@
         <v>23.1</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -9564,6 +9897,7 @@
         <v>9.1000000000000014</v>
       </c>
       <c r="H335">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9590,7 +9924,8 @@
         <v>14.299999999999999</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -9616,7 +9951,8 @@
         <v>8.1</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -9642,7 +9978,8 @@
         <v>16.899999999999999</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -9668,6 +10005,7 @@
         <v>21.4</v>
       </c>
       <c r="H339">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9694,6 +10032,7 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="H340">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9720,7 +10059,8 @@
         <v>10.4</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -9746,6 +10086,7 @@
         <v>9.4000000000000021</v>
       </c>
       <c r="H342">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9772,7 +10113,8 @@
         <v>19.2</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -9798,7 +10140,8 @@
         <v>7.5000000000000009</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -9824,7 +10167,8 @@
         <v>21.8</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -9850,7 +10194,8 @@
         <v>19.7</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -9876,7 +10221,8 @@
         <v>11.5</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -9902,7 +10248,8 @@
         <v>14.7</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -9928,7 +10275,8 @@
         <v>17.3</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -9954,6 +10302,7 @@
         <v>14.700000000000001</v>
       </c>
       <c r="H350">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9980,6 +10329,7 @@
         <v>5.8</v>
       </c>
       <c r="H351">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10006,7 +10356,8 @@
         <v>11.1</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -10032,7 +10383,8 @@
         <v>14.200000000000001</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -10058,7 +10410,8 @@
         <v>20.5</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -10084,7 +10437,8 @@
         <v>16.3</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -10110,6 +10464,7 @@
         <v>6.6</v>
       </c>
       <c r="H356">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10136,7 +10491,8 @@
         <v>12.9</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -10162,7 +10518,8 @@
         <v>11.9</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -10188,7 +10545,8 @@
         <v>8.1000000000000014</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -10214,6 +10572,7 @@
         <v>10.8</v>
       </c>
       <c r="H360">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10240,7 +10599,8 @@
         <v>10.6</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -10266,7 +10626,8 @@
         <v>13.5</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -10292,6 +10653,7 @@
         <v>12.000000000000002</v>
       </c>
       <c r="H363">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10318,7 +10680,8 @@
         <v>14.2</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -10344,7 +10707,8 @@
         <v>16.400000000000002</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -10370,7 +10734,8 @@
         <v>20.5</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -10396,7 +10761,8 @@
         <v>9.9</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -10422,7 +10788,8 @@
         <v>15.7</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -10448,7 +10815,8 @@
         <v>19.900000000000002</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -10474,7 +10842,8 @@
         <v>12.1</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -10500,6 +10869,7 @@
         <v>7.1</v>
       </c>
       <c r="H371">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10526,6 +10896,7 @@
         <v>17</v>
       </c>
       <c r="H372">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10552,6 +10923,7 @@
         <v>11.3</v>
       </c>
       <c r="H373">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10578,7 +10950,8 @@
         <v>17.100000000000001</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -10604,7 +10977,8 @@
         <v>11.9</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -10630,7 +11004,8 @@
         <v>19.700000000000003</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -10656,7 +11031,8 @@
         <v>13.8</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -10682,6 +11058,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="H378">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -10708,7 +11085,8 @@
         <v>10.4</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -10734,7 +11112,8 @@
         <v>11</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -10760,7 +11139,8 @@
         <v>7.5</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -10786,7 +11166,8 @@
         <v>14.5</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -10812,7 +11193,8 @@
         <v>11.2</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -10838,7 +11220,8 @@
         <v>12.7</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -10864,7 +11247,8 @@
         <v>8</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -10890,7 +11274,8 @@
         <v>12.2</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -10916,7 +11301,8 @@
         <v>19.5</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <f t="shared" ref="H387:H450" si="6">IF(AND((G387&lt;25.9),(A387&lt;20),(B387&lt;70)),1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -10942,7 +11328,8 @@
         <v>20.299999999999997</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -10968,6 +11355,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="H389">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10994,7 +11382,8 @@
         <v>8.4</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -11020,6 +11409,7 @@
         <v>18.500000000000004</v>
       </c>
       <c r="H391">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11046,7 +11436,8 @@
         <v>10.9</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -11072,7 +11463,8 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -11098,6 +11490,7 @@
         <v>6.5</v>
       </c>
       <c r="H394">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11124,7 +11517,8 @@
         <v>19.399999999999999</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -11150,7 +11544,8 @@
         <v>13.8</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -11176,7 +11571,8 @@
         <v>15.9</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -11202,6 +11598,7 @@
         <v>15.1</v>
       </c>
       <c r="H398">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11228,7 +11625,8 @@
         <v>15.5</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -11254,7 +11652,8 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -11280,7 +11679,8 @@
         <v>18.000000000000004</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -11306,7 +11706,8 @@
         <v>16.400000000000002</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -11332,6 +11733,7 @@
         <v>19.800000000000004</v>
       </c>
       <c r="H403">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11358,7 +11760,8 @@
         <v>21.099999999999998</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -11384,6 +11787,7 @@
         <v>15.7</v>
       </c>
       <c r="H405">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11410,7 +11814,8 @@
         <v>13.600000000000001</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -11436,6 +11841,7 @@
         <v>20.400000000000002</v>
       </c>
       <c r="H407">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11462,6 +11868,7 @@
         <v>11.3</v>
       </c>
       <c r="H408">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11488,7 +11895,8 @@
         <v>19.600000000000001</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -11514,7 +11922,8 @@
         <v>20.8</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -11540,6 +11949,7 @@
         <v>8.4</v>
       </c>
       <c r="H411">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -11566,7 +11976,8 @@
         <v>20.599999999999998</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -11592,7 +12003,8 @@
         <v>11.700000000000001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -11618,6 +12030,7 @@
         <v>13.400000000000002</v>
       </c>
       <c r="H414">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11644,6 +12057,7 @@
         <v>20</v>
       </c>
       <c r="H415">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11670,6 +12084,7 @@
         <v>12.600000000000001</v>
       </c>
       <c r="H416">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11696,7 +12111,8 @@
         <v>18</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
@@ -11722,6 +12138,7 @@
         <v>14.900000000000002</v>
       </c>
       <c r="H418">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11748,6 +12165,7 @@
         <v>15</v>
       </c>
       <c r="H419">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -11774,7 +12192,8 @@
         <v>11.200000000000001</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -11800,7 +12219,8 @@
         <v>14.7</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -11826,7 +12246,8 @@
         <v>14.200000000000001</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -11852,7 +12273,8 @@
         <v>14</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -11878,7 +12300,8 @@
         <v>11.100000000000001</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -11904,7 +12327,8 @@
         <v>20.299999999999997</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -11930,7 +12354,8 @@
         <v>14.3</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -11956,7 +12381,8 @@
         <v>15.099999999999998</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -11982,7 +12408,8 @@
         <v>12.2</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -12008,7 +12435,8 @@
         <v>14.9</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
@@ -12034,7 +12462,8 @@
         <v>25</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
@@ -12060,7 +12489,8 @@
         <v>13.9</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
@@ -12086,6 +12516,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="H432">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12112,7 +12543,8 @@
         <v>19.8</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -12138,7 +12570,8 @@
         <v>20.900000000000006</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -12164,7 +12597,8 @@
         <v>15.299999999999999</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -12190,7 +12624,8 @@
         <v>14.5</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -12216,7 +12651,8 @@
         <v>21.000000000000007</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -12242,7 +12678,8 @@
         <v>5.4</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
@@ -12268,6 +12705,7 @@
         <v>15.200000000000003</v>
       </c>
       <c r="H439">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12294,7 +12732,8 @@
         <v>8.4</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
@@ -12320,6 +12759,7 @@
         <v>10.099999999999998</v>
       </c>
       <c r="H441">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12346,7 +12786,8 @@
         <v>11.700000000000001</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
@@ -12372,7 +12813,8 @@
         <v>9.0000000000000018</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
@@ -12398,6 +12840,7 @@
         <v>11.4</v>
       </c>
       <c r="H444">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12424,6 +12867,7 @@
         <v>15.6</v>
       </c>
       <c r="H445">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12450,6 +12894,7 @@
         <v>9.4</v>
       </c>
       <c r="H446">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12476,7 +12921,8 @@
         <v>14</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
@@ -12502,7 +12948,8 @@
         <v>15.100000000000003</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -12528,6 +12975,7 @@
         <v>6.6</v>
       </c>
       <c r="H449">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -12554,6 +13002,7 @@
         <v>14.100000000000001</v>
       </c>
       <c r="H450">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -12580,6 +13029,7 @@
         <v>15.100000000000001</v>
       </c>
       <c r="H451">
+        <f t="shared" ref="H451:H501" si="7">IF(AND((G451&lt;25.9),(A451&lt;20),(B451&lt;70)),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -12606,7 +13056,8 @@
         <v>15.9</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -12632,6 +13083,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="H453">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12658,7 +13110,8 @@
         <v>11.200000000000001</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -12684,7 +13137,8 @@
         <v>14.6</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -12710,7 +13164,8 @@
         <v>13.900000000000002</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
@@ -12736,7 +13191,8 @@
         <v>19.8</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -12762,6 +13218,7 @@
         <v>8.1</v>
       </c>
       <c r="H458">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -12788,7 +13245,8 @@
         <v>14.300000000000002</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -12814,7 +13272,8 @@
         <v>15.7</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -12840,7 +13299,8 @@
         <v>15.6</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -12866,7 +13326,8 @@
         <v>16.400000000000002</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -12892,7 +13353,8 @@
         <v>18.000000000000004</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
@@ -12918,7 +13380,8 @@
         <v>20.2</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
@@ -12944,7 +13407,8 @@
         <v>10.9</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
@@ -12970,7 +13434,8 @@
         <v>20.7</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
@@ -12996,6 +13461,7 @@
         <v>8.4</v>
       </c>
       <c r="H467">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13022,7 +13488,8 @@
         <v>12.4</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -13048,7 +13515,8 @@
         <v>12.2</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
@@ -13074,7 +13542,8 @@
         <v>20.800000000000004</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
@@ -13100,7 +13569,8 @@
         <v>18.500000000000004</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
@@ -13126,6 +13596,7 @@
         <v>10.600000000000001</v>
       </c>
       <c r="H472">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13152,6 +13623,7 @@
         <v>16.300000000000004</v>
       </c>
       <c r="H473">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13178,6 +13650,7 @@
         <v>21.400000000000002</v>
       </c>
       <c r="H474">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13204,7 +13677,8 @@
         <v>20</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
@@ -13230,6 +13704,7 @@
         <v>12.500000000000002</v>
       </c>
       <c r="H476">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13256,7 +13731,8 @@
         <v>11.7</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
@@ -13282,7 +13758,8 @@
         <v>19</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
@@ -13308,7 +13785,8 @@
         <v>18.3</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
@@ -13334,6 +13812,7 @@
         <v>22.700000000000003</v>
       </c>
       <c r="H480">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13360,6 +13839,7 @@
         <v>11.700000000000001</v>
       </c>
       <c r="H481">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13386,6 +13866,7 @@
         <v>8.6</v>
       </c>
       <c r="H482">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13412,7 +13893,8 @@
         <v>5</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
@@ -13438,7 +13920,8 @@
         <v>18.899999999999999</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
@@ -13464,7 +13947,8 @@
         <v>11.8</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
@@ -13490,7 +13974,8 @@
         <v>19.500000000000004</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
@@ -13516,6 +14001,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H487">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13542,7 +14028,8 @@
         <v>18.900000000000002</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.3">
@@ -13568,6 +14055,7 @@
         <v>13.9</v>
       </c>
       <c r="H489">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13594,6 +14082,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H490">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13620,7 +14109,8 @@
         <v>22.100000000000005</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
@@ -13646,7 +14136,8 @@
         <v>18.8</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.3">
@@ -13672,6 +14163,7 @@
         <v>21.700000000000003</v>
       </c>
       <c r="H493">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13698,6 +14190,7 @@
         <v>7.6</v>
       </c>
       <c r="H494">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13724,6 +14217,7 @@
         <v>22.1</v>
       </c>
       <c r="H495">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13750,6 +14244,7 @@
         <v>15.700000000000001</v>
       </c>
       <c r="H496">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13776,6 +14271,7 @@
         <v>18.2</v>
       </c>
       <c r="H497">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -13802,6 +14298,7 @@
         <v>12.5</v>
       </c>
       <c r="H498">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -13828,7 +14325,8 @@
         <v>10.3</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
@@ -13854,7 +14352,8 @@
         <v>8.4</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
@@ -13880,7 +14379,8 @@
         <v>15.700000000000001</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
